--- a/Code/Results/Cases/Case_5_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_220/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.024857773293206</v>
+        <v>1.069504995555226</v>
       </c>
       <c r="D2">
-        <v>1.040455675369317</v>
+        <v>1.068227240103942</v>
       </c>
       <c r="E2">
-        <v>1.036375405100886</v>
+        <v>1.073200654573543</v>
       </c>
       <c r="F2">
-        <v>1.045378194688739</v>
+        <v>1.081748225534814</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057053766746878</v>
+        <v>1.047873759189905</v>
       </c>
       <c r="J2">
-        <v>1.046319587570579</v>
+        <v>1.074439382078946</v>
       </c>
       <c r="K2">
-        <v>1.051378764753785</v>
+        <v>1.070932987304473</v>
       </c>
       <c r="L2">
-        <v>1.047350207031392</v>
+        <v>1.075893145079644</v>
       </c>
       <c r="M2">
-        <v>1.056239566603234</v>
+        <v>1.084418239958535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>1.032779354137561</v>
+        <v>1.071079478604031</v>
       </c>
       <c r="D3">
-        <v>1.046546877508698</v>
+        <v>1.069436886922872</v>
       </c>
       <c r="E3">
-        <v>1.043139336555872</v>
+        <v>1.074584481136349</v>
       </c>
       <c r="F3">
-        <v>1.052320070123</v>
+        <v>1.083168121359608</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059663747756036</v>
+        <v>1.048271202457672</v>
       </c>
       <c r="J3">
-        <v>1.052414627704277</v>
+        <v>1.075668105253648</v>
       </c>
       <c r="K3">
-        <v>1.05661690643324</v>
+        <v>1.071957593096608</v>
       </c>
       <c r="L3">
-        <v>1.053248464380435</v>
+        <v>1.077092466562212</v>
       </c>
       <c r="M3">
-        <v>1.062324568277602</v>
+        <v>1.085655183955298</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037750028255495</v>
+        <v>1.072096838609929</v>
       </c>
       <c r="D4">
-        <v>1.050370428536232</v>
+        <v>1.070218086496219</v>
       </c>
       <c r="E4">
-        <v>1.047388931008425</v>
+        <v>1.07547876324512</v>
       </c>
       <c r="F4">
-        <v>1.056681676349563</v>
+        <v>1.084085738166867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061285700324878</v>
+        <v>1.04852603424059</v>
       </c>
       <c r="J4">
-        <v>1.056235011772222</v>
+        <v>1.076461324540366</v>
       </c>
       <c r="K4">
-        <v>1.059896683309554</v>
+        <v>1.072618489562522</v>
       </c>
       <c r="L4">
-        <v>1.056947173955716</v>
+        <v>1.077866825694777</v>
       </c>
       <c r="M4">
-        <v>1.066140946704809</v>
+        <v>1.08645388699246</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039804699646792</v>
+        <v>1.072524201142359</v>
       </c>
       <c r="D5">
-        <v>1.051951148816749</v>
+        <v>1.070546143554305</v>
       </c>
       <c r="E5">
-        <v>1.049146720168491</v>
+        <v>1.075854451335136</v>
       </c>
       <c r="F5">
-        <v>1.05848584397107</v>
+        <v>1.0844712351298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061952292739677</v>
+        <v>1.048632607461892</v>
       </c>
       <c r="J5">
-        <v>1.057813131376173</v>
+        <v>1.076794357895217</v>
       </c>
       <c r="K5">
-        <v>1.061250621121867</v>
+        <v>1.07289583460612</v>
       </c>
       <c r="L5">
-        <v>1.058475421497717</v>
+        <v>1.078191969401765</v>
       </c>
       <c r="M5">
-        <v>1.067717941309466</v>
+        <v>1.086789264817792</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.040147694286319</v>
+        <v>1.072595937746634</v>
       </c>
       <c r="D6">
-        <v>1.052215034698201</v>
+        <v>1.070601204865636</v>
       </c>
       <c r="E6">
-        <v>1.049440221930045</v>
+        <v>1.075917515478835</v>
       </c>
       <c r="F6">
-        <v>1.058787092217498</v>
+        <v>1.084535946167165</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062063340926455</v>
+        <v>1.048650468915691</v>
       </c>
       <c r="J6">
-        <v>1.058076508431164</v>
+        <v>1.076850250267889</v>
       </c>
       <c r="K6">
-        <v>1.061476531933067</v>
+        <v>1.072942373128134</v>
       </c>
       <c r="L6">
-        <v>1.058730497830468</v>
+        <v>1.078246539356466</v>
       </c>
       <c r="M6">
-        <v>1.067981161242165</v>
+        <v>1.0868455531234</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037777617713908</v>
+        <v>1.072102550357699</v>
       </c>
       <c r="D7">
-        <v>1.05039165320221</v>
+        <v>1.070222471415705</v>
       </c>
       <c r="E7">
-        <v>1.047412529470469</v>
+        <v>1.075483784253468</v>
       </c>
       <c r="F7">
-        <v>1.056705897269781</v>
+        <v>1.084090890245862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061294666465641</v>
+        <v>1.048527460467189</v>
       </c>
       <c r="J7">
-        <v>1.056256206571295</v>
+        <v>1.076465776254158</v>
       </c>
       <c r="K7">
-        <v>1.059914870729529</v>
+        <v>1.072622197402692</v>
       </c>
       <c r="L7">
-        <v>1.056967697426069</v>
+        <v>1.077871171833161</v>
       </c>
       <c r="M7">
-        <v>1.066162124321401</v>
+        <v>1.086458369879832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027568373049247</v>
+        <v>1.070037401668494</v>
       </c>
       <c r="D8">
-        <v>1.042539584931097</v>
+        <v>1.068636364429713</v>
       </c>
       <c r="E8">
-        <v>1.038688694735594</v>
+        <v>1.073668566370886</v>
       </c>
       <c r="F8">
-        <v>1.04775229329252</v>
+        <v>1.082228328075394</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057950132701896</v>
+        <v>1.048008563015973</v>
       </c>
       <c r="J8">
-        <v>1.048406017147473</v>
+        <v>1.074855020889351</v>
       </c>
       <c r="K8">
-        <v>1.053172586286835</v>
+        <v>1.071279693808314</v>
       </c>
       <c r="L8">
-        <v>1.049368914535995</v>
+        <v>1.076298813183483</v>
       </c>
       <c r="M8">
-        <v>1.058322064475493</v>
+        <v>1.084836622864855</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008283463075605</v>
+        <v>1.066386984248656</v>
       </c>
       <c r="D9">
-        <v>1.027724855260318</v>
+        <v>1.065829538792001</v>
       </c>
       <c r="E9">
-        <v>1.022258063452641</v>
+        <v>1.070460858742752</v>
       </c>
       <c r="F9">
-        <v>1.030890916907188</v>
+        <v>1.078937156792816</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051507716013422</v>
+        <v>1.047076170300368</v>
       </c>
       <c r="J9">
-        <v>1.033547064038236</v>
+        <v>1.072002246235455</v>
       </c>
       <c r="K9">
-        <v>1.040383579122353</v>
+        <v>1.068897783719136</v>
       </c>
       <c r="L9">
-        <v>1.035000053639533</v>
+        <v>1.073514972110979</v>
       </c>
       <c r="M9">
-        <v>1.043501931569887</v>
+        <v>1.081965748771482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9943866567920053</v>
+        <v>1.063945221332588</v>
       </c>
       <c r="D10">
-        <v>1.017070915735512</v>
+        <v>1.063949981410957</v>
       </c>
       <c r="E10">
-        <v>1.0104592097729</v>
+        <v>1.068315896080533</v>
       </c>
       <c r="F10">
-        <v>1.018784534834079</v>
+        <v>1.076736523396183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046785647875032</v>
+        <v>1.046442307633769</v>
       </c>
       <c r="J10">
-        <v>1.022824770850543</v>
+        <v>1.070090317454964</v>
       </c>
       <c r="K10">
-        <v>1.031138641515969</v>
+        <v>1.067298602830458</v>
       </c>
       <c r="L10">
-        <v>1.024642153376854</v>
+        <v>1.071649872603067</v>
       </c>
       <c r="M10">
-        <v>1.032822714014556</v>
+        <v>1.080042621920126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9880774843512417</v>
+        <v>1.062885863023801</v>
       </c>
       <c r="D11">
-        <v>1.012241656208079</v>
+        <v>1.063134058149238</v>
       </c>
       <c r="E11">
-        <v>1.005114413364449</v>
+        <v>1.067385474704331</v>
       </c>
       <c r="F11">
-        <v>1.013300964269587</v>
+        <v>1.07578198843604</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044624297005197</v>
+        <v>1.046164895434651</v>
       </c>
       <c r="J11">
-        <v>1.017954805025212</v>
+        <v>1.069259954167601</v>
       </c>
       <c r="K11">
-        <v>1.026936347305388</v>
+        <v>1.066603402380071</v>
       </c>
       <c r="L11">
-        <v>1.019940519586892</v>
+        <v>1.070839997973872</v>
       </c>
       <c r="M11">
-        <v>1.027976328759403</v>
+        <v>1.079207618948811</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9856856548216999</v>
+        <v>1.062492050905423</v>
       </c>
       <c r="D12">
-        <v>1.010412259241089</v>
+        <v>1.062830671409697</v>
       </c>
       <c r="E12">
-        <v>1.003090177946512</v>
+        <v>1.067039620850493</v>
       </c>
       <c r="F12">
-        <v>1.011224261656986</v>
+        <v>1.075427176476296</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043802423477636</v>
+        <v>1.046061406748232</v>
       </c>
       <c r="J12">
-        <v>1.016108425989871</v>
+        <v>1.068951139315855</v>
       </c>
       <c r="K12">
-        <v>1.025342659062318</v>
+        <v>1.066344755399514</v>
       </c>
       <c r="L12">
-        <v>1.018158413528657</v>
+        <v>1.070538825601946</v>
       </c>
       <c r="M12">
-        <v>1.026139536201515</v>
+        <v>1.078897112415615</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9862009761212845</v>
+        <v>1.062576539550147</v>
       </c>
       <c r="D13">
-        <v>1.010806337019988</v>
+        <v>1.062895763325253</v>
       </c>
       <c r="E13">
-        <v>1.003526207192141</v>
+        <v>1.067113819292482</v>
       </c>
       <c r="F13">
-        <v>1.011671588289998</v>
+        <v>1.075503296520108</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043979607055394</v>
+        <v>1.046083625627199</v>
       </c>
       <c r="J13">
-        <v>1.016506234180072</v>
+        <v>1.0690173985105</v>
       </c>
       <c r="K13">
-        <v>1.025686043507686</v>
+        <v>1.066400255097177</v>
       </c>
       <c r="L13">
-        <v>1.018542353019625</v>
+        <v>1.070603444001569</v>
       </c>
       <c r="M13">
-        <v>1.026535249050982</v>
+        <v>1.078963733042489</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9878807889636489</v>
+        <v>1.062853316962213</v>
       </c>
       <c r="D14">
-        <v>1.012091183513322</v>
+        <v>1.063108986602066</v>
       </c>
       <c r="E14">
-        <v>1.004947905852424</v>
+        <v>1.067356891542148</v>
       </c>
       <c r="F14">
-        <v>1.013130139059118</v>
+        <v>1.075752664819924</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044556758897307</v>
+        <v>1.046156350131452</v>
       </c>
       <c r="J14">
-        <v>1.01780296779864</v>
+        <v>1.069234435250794</v>
       </c>
       <c r="K14">
-        <v>1.026805298885817</v>
+        <v>1.066582031115147</v>
       </c>
       <c r="L14">
-        <v>1.019793958521445</v>
+        <v>1.070815110130439</v>
       </c>
       <c r="M14">
-        <v>1.027825266515523</v>
+        <v>1.079181959548711</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9889092288767893</v>
+        <v>1.063023806054481</v>
       </c>
       <c r="D15">
-        <v>1.012878001898193</v>
+        <v>1.063240318359677</v>
       </c>
       <c r="E15">
-        <v>1.005818588036643</v>
+        <v>1.067506622495923</v>
       </c>
       <c r="F15">
-        <v>1.014023402615302</v>
+        <v>1.075906274810388</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044909787499707</v>
+        <v>1.046201098985305</v>
       </c>
       <c r="J15">
-        <v>1.018596857202871</v>
+        <v>1.06936810804291</v>
       </c>
       <c r="K15">
-        <v>1.027490475006907</v>
+        <v>1.066693973665792</v>
       </c>
       <c r="L15">
-        <v>1.020560279762163</v>
+        <v>1.070945478172693</v>
       </c>
       <c r="M15">
-        <v>1.028615130393473</v>
+        <v>1.07931636960436</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9947988597737668</v>
+        <v>1.064015483228992</v>
       </c>
       <c r="D16">
-        <v>1.017386607989123</v>
+        <v>1.064004087530283</v>
       </c>
       <c r="E16">
-        <v>1.010808669084678</v>
+        <v>1.068377609901529</v>
       </c>
       <c r="F16">
-        <v>1.01914307953079</v>
+        <v>1.076799837385707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046926506229863</v>
+        <v>1.046460656261399</v>
       </c>
       <c r="J16">
-        <v>1.023142914822577</v>
+        <v>1.07014537292302</v>
       </c>
       <c r="K16">
-        <v>1.031413103485397</v>
+        <v>1.067344682638508</v>
       </c>
       <c r="L16">
-        <v>1.024949361245407</v>
+        <v>1.071703572786454</v>
       </c>
       <c r="M16">
-        <v>1.033139403979161</v>
+        <v>1.08009798973929</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9984121797441083</v>
+        <v>1.064636977903012</v>
       </c>
       <c r="D17">
-        <v>1.020154814359793</v>
+        <v>1.064482622888015</v>
       </c>
       <c r="E17">
-        <v>1.013873348673336</v>
+        <v>1.068923513174421</v>
       </c>
       <c r="F17">
-        <v>1.022287497257821</v>
+        <v>1.077359899327205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048159293790413</v>
+        <v>1.046622679042363</v>
       </c>
       <c r="J17">
-        <v>1.0259315125863</v>
+        <v>1.070632259905131</v>
       </c>
       <c r="K17">
-        <v>1.033818450232302</v>
+        <v>1.067752115997849</v>
       </c>
       <c r="L17">
-        <v>1.027642423187872</v>
+        <v>1.0721784915687</v>
       </c>
       <c r="M17">
-        <v>1.035915713906736</v>
+        <v>1.080587664851914</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000491951545281</v>
+        <v>1.064999287258952</v>
       </c>
       <c r="D18">
-        <v>1.021748851507378</v>
+        <v>1.064761545915784</v>
       </c>
       <c r="E18">
-        <v>1.0156384328447</v>
+        <v>1.069241771766003</v>
       </c>
       <c r="F18">
-        <v>1.024098555540354</v>
+        <v>1.077686415684522</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048867214811738</v>
+        <v>1.046716900192015</v>
       </c>
       <c r="J18">
-        <v>1.027536386417771</v>
+        <v>1.070916013541507</v>
       </c>
       <c r="K18">
-        <v>1.035202442362106</v>
+        <v>1.067989500596426</v>
       </c>
       <c r="L18">
-        <v>1.029192578120322</v>
+        <v>1.0724552847184</v>
       </c>
       <c r="M18">
-        <v>1.037513889396935</v>
+        <v>1.080873064919043</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001196508064733</v>
+        <v>1.065122792106597</v>
       </c>
       <c r="D19">
-        <v>1.022288969502385</v>
+        <v>1.064856617982438</v>
       </c>
       <c r="E19">
-        <v>1.016236564925273</v>
+        <v>1.069350263231813</v>
       </c>
       <c r="F19">
-        <v>1.024712274904491</v>
+        <v>1.077797722710774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049106750486868</v>
+        <v>1.046748979085995</v>
       </c>
       <c r="J19">
-        <v>1.028080025479983</v>
+        <v>1.071012725835527</v>
       </c>
       <c r="K19">
-        <v>1.035671204356788</v>
+        <v>1.068070397953061</v>
       </c>
       <c r="L19">
-        <v>1.029717725459231</v>
+        <v>1.072549627109884</v>
       </c>
       <c r="M19">
-        <v>1.038055321618463</v>
+        <v>1.080970342014645</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9980274123433597</v>
+        <v>1.06457031795561</v>
       </c>
       <c r="D20">
-        <v>1.019859965203831</v>
+        <v>1.064431301158079</v>
       </c>
       <c r="E20">
-        <v>1.013546887813377</v>
+        <v>1.068864959272299</v>
       </c>
       <c r="F20">
-        <v>1.021952537195211</v>
+        <v>1.077299826411671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048028190289333</v>
+        <v>1.046605324927663</v>
       </c>
       <c r="J20">
-        <v>1.025634586281837</v>
+        <v>1.070580046346626</v>
       </c>
       <c r="K20">
-        <v>1.033562364485035</v>
+        <v>1.067708429646278</v>
       </c>
       <c r="L20">
-        <v>1.027355641869302</v>
+        <v>1.072127559976212</v>
       </c>
       <c r="M20">
-        <v>1.035620056880876</v>
+        <v>1.08053515006598</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.987387499127545</v>
+        <v>1.062771821806727</v>
       </c>
       <c r="D21">
-        <v>1.011713838233802</v>
+        <v>1.06304620645238</v>
       </c>
       <c r="E21">
-        <v>1.004530356630287</v>
+        <v>1.06728531989546</v>
       </c>
       <c r="F21">
-        <v>1.012701763884922</v>
+        <v>1.07567923917845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044387341284455</v>
+        <v>1.046134946897568</v>
       </c>
       <c r="J21">
-        <v>1.017422175163363</v>
+        <v>1.069170533917315</v>
       </c>
       <c r="K21">
-        <v>1.026476635503979</v>
+        <v>1.066528514213712</v>
       </c>
       <c r="L21">
-        <v>1.019426405340957</v>
+        <v>1.070752789419866</v>
       </c>
       <c r="M21">
-        <v>1.027446428001733</v>
+        <v>1.07911770698138</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9804154710924454</v>
+        <v>1.061639183684738</v>
       </c>
       <c r="D22">
-        <v>1.006384213185636</v>
+        <v>1.062173507868744</v>
       </c>
       <c r="E22">
-        <v>0.998633893605775</v>
+        <v>1.066290664878292</v>
       </c>
       <c r="F22">
-        <v>1.006652652910324</v>
+        <v>1.074658831363245</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04198705062764</v>
+        <v>1.04583662289388</v>
       </c>
       <c r="J22">
-        <v>1.012039982081416</v>
+        <v>1.068282109645119</v>
       </c>
       <c r="K22">
-        <v>1.02183024968562</v>
+        <v>1.065784229649725</v>
       </c>
       <c r="L22">
-        <v>1.014232461994903</v>
+        <v>1.069886394517042</v>
       </c>
       <c r="M22">
-        <v>1.022093461506707</v>
+        <v>1.078224479959747</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9841399062727101</v>
+        <v>1.06223979549454</v>
       </c>
       <c r="D23">
-        <v>1.009230415131406</v>
+        <v>1.062636318027658</v>
       </c>
       <c r="E23">
-        <v>1.001782582449992</v>
+        <v>1.066818092562363</v>
       </c>
       <c r="F23">
-        <v>1.009882800939088</v>
+        <v>1.07519991180682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04327059191917</v>
+        <v>1.045995015501889</v>
       </c>
       <c r="J23">
-        <v>1.014915156878973</v>
+        <v>1.06875329197244</v>
       </c>
       <c r="K23">
-        <v>1.024312578706504</v>
+        <v>1.066179020928144</v>
       </c>
       <c r="L23">
-        <v>1.01700681371112</v>
+        <v>1.070345880935568</v>
       </c>
       <c r="M23">
-        <v>1.024952650643627</v>
+        <v>1.07869819082114</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9982013577992506</v>
+        <v>1.064600439328431</v>
       </c>
       <c r="D24">
-        <v>1.019993258307178</v>
+        <v>1.064454491852485</v>
       </c>
       <c r="E24">
-        <v>1.013694470669664</v>
+        <v>1.068891417747324</v>
       </c>
       <c r="F24">
-        <v>1.022103962125406</v>
+        <v>1.077326971265792</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0480874646408</v>
+        <v>1.04661316738274</v>
       </c>
       <c r="J24">
-        <v>1.025768821212087</v>
+        <v>1.070603640145854</v>
       </c>
       <c r="K24">
-        <v>1.033678137134604</v>
+        <v>1.067728170445242</v>
       </c>
       <c r="L24">
-        <v>1.027485289621756</v>
+        <v>1.072150574447263</v>
       </c>
       <c r="M24">
-        <v>1.03575371683606</v>
+        <v>1.080558879914639</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013438737767716</v>
+        <v>1.067332103586539</v>
       </c>
       <c r="D25">
-        <v>1.031682219741193</v>
+        <v>1.066556615598236</v>
       </c>
       <c r="E25">
-        <v>1.026643967043677</v>
+        <v>1.071291242741623</v>
       </c>
       <c r="F25">
-        <v>1.03539152903599</v>
+        <v>1.079789122874742</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05324384411815</v>
+        <v>1.04731936762727</v>
       </c>
       <c r="J25">
-        <v>1.037522147049835</v>
+        <v>1.07274150493617</v>
       </c>
       <c r="K25">
-        <v>1.043807841455761</v>
+        <v>1.069515522435142</v>
       </c>
       <c r="L25">
-        <v>1.038842284867188</v>
+        <v>1.074236257133369</v>
       </c>
       <c r="M25">
-        <v>1.047464201715846</v>
+        <v>1.082709534673982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_220/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069504995555226</v>
+        <v>1.024857773293205</v>
       </c>
       <c r="D2">
-        <v>1.068227240103942</v>
+        <v>1.040455675369317</v>
       </c>
       <c r="E2">
-        <v>1.073200654573543</v>
+        <v>1.036375405100885</v>
       </c>
       <c r="F2">
-        <v>1.081748225534814</v>
+        <v>1.045378194688738</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047873759189905</v>
+        <v>1.057053766746878</v>
       </c>
       <c r="J2">
-        <v>1.074439382078946</v>
+        <v>1.046319587570578</v>
       </c>
       <c r="K2">
-        <v>1.070932987304473</v>
+        <v>1.051378764753784</v>
       </c>
       <c r="L2">
-        <v>1.075893145079644</v>
+        <v>1.047350207031391</v>
       </c>
       <c r="M2">
-        <v>1.084418239958535</v>
+        <v>1.056239566603234</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071079478604031</v>
+        <v>1.032779354137561</v>
       </c>
       <c r="D3">
-        <v>1.069436886922872</v>
+        <v>1.046546877508698</v>
       </c>
       <c r="E3">
-        <v>1.074584481136349</v>
+        <v>1.043139336555872</v>
       </c>
       <c r="F3">
-        <v>1.083168121359608</v>
+        <v>1.052320070123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048271202457672</v>
+        <v>1.059663747756036</v>
       </c>
       <c r="J3">
-        <v>1.075668105253648</v>
+        <v>1.052414627704278</v>
       </c>
       <c r="K3">
-        <v>1.071957593096608</v>
+        <v>1.056616906433239</v>
       </c>
       <c r="L3">
-        <v>1.077092466562212</v>
+        <v>1.053248464380435</v>
       </c>
       <c r="M3">
-        <v>1.085655183955298</v>
+        <v>1.062324568277602</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072096838609929</v>
+        <v>1.037750028255496</v>
       </c>
       <c r="D4">
-        <v>1.070218086496219</v>
+        <v>1.050370428536233</v>
       </c>
       <c r="E4">
-        <v>1.07547876324512</v>
+        <v>1.047388931008427</v>
       </c>
       <c r="F4">
-        <v>1.084085738166867</v>
+        <v>1.056681676349564</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04852603424059</v>
+        <v>1.061285700324879</v>
       </c>
       <c r="J4">
-        <v>1.076461324540366</v>
+        <v>1.056235011772224</v>
       </c>
       <c r="K4">
-        <v>1.072618489562522</v>
+        <v>1.059896683309555</v>
       </c>
       <c r="L4">
-        <v>1.077866825694777</v>
+        <v>1.056947173955717</v>
       </c>
       <c r="M4">
-        <v>1.08645388699246</v>
+        <v>1.06614094670481</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072524201142359</v>
+        <v>1.039804699646793</v>
       </c>
       <c r="D5">
-        <v>1.070546143554305</v>
+        <v>1.05195114881675</v>
       </c>
       <c r="E5">
-        <v>1.075854451335136</v>
+        <v>1.049146720168493</v>
       </c>
       <c r="F5">
-        <v>1.0844712351298</v>
+        <v>1.058485843971071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048632607461892</v>
+        <v>1.061952292739678</v>
       </c>
       <c r="J5">
-        <v>1.076794357895217</v>
+        <v>1.057813131376175</v>
       </c>
       <c r="K5">
-        <v>1.07289583460612</v>
+        <v>1.061250621121869</v>
       </c>
       <c r="L5">
-        <v>1.078191969401765</v>
+        <v>1.058475421497718</v>
       </c>
       <c r="M5">
-        <v>1.086789264817792</v>
+        <v>1.067717941309468</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072595937746634</v>
+        <v>1.040147694286319</v>
       </c>
       <c r="D6">
-        <v>1.070601204865636</v>
+        <v>1.052215034698201</v>
       </c>
       <c r="E6">
-        <v>1.075917515478835</v>
+        <v>1.049440221930044</v>
       </c>
       <c r="F6">
-        <v>1.084535946167165</v>
+        <v>1.058787092217498</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048650468915691</v>
+        <v>1.062063340926455</v>
       </c>
       <c r="J6">
-        <v>1.076850250267889</v>
+        <v>1.058076508431163</v>
       </c>
       <c r="K6">
-        <v>1.072942373128134</v>
+        <v>1.061476531933066</v>
       </c>
       <c r="L6">
-        <v>1.078246539356466</v>
+        <v>1.058730497830467</v>
       </c>
       <c r="M6">
-        <v>1.0868455531234</v>
+        <v>1.067981161242165</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072102550357699</v>
+        <v>1.037777617713908</v>
       </c>
       <c r="D7">
-        <v>1.070222471415705</v>
+        <v>1.05039165320221</v>
       </c>
       <c r="E7">
-        <v>1.075483784253468</v>
+        <v>1.047412529470469</v>
       </c>
       <c r="F7">
-        <v>1.084090890245862</v>
+        <v>1.056705897269781</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048527460467189</v>
+        <v>1.061294666465641</v>
       </c>
       <c r="J7">
-        <v>1.076465776254158</v>
+        <v>1.056256206571295</v>
       </c>
       <c r="K7">
-        <v>1.072622197402692</v>
+        <v>1.059914870729529</v>
       </c>
       <c r="L7">
-        <v>1.077871171833161</v>
+        <v>1.056967697426069</v>
       </c>
       <c r="M7">
-        <v>1.086458369879832</v>
+        <v>1.066162124321401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070037401668494</v>
+        <v>1.027568373049248</v>
       </c>
       <c r="D8">
-        <v>1.068636364429713</v>
+        <v>1.042539584931097</v>
       </c>
       <c r="E8">
-        <v>1.073668566370886</v>
+        <v>1.038688694735595</v>
       </c>
       <c r="F8">
-        <v>1.082228328075394</v>
+        <v>1.04775229329252</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048008563015973</v>
+        <v>1.057950132701896</v>
       </c>
       <c r="J8">
-        <v>1.074855020889351</v>
+        <v>1.048406017147473</v>
       </c>
       <c r="K8">
-        <v>1.071279693808314</v>
+        <v>1.053172586286834</v>
       </c>
       <c r="L8">
-        <v>1.076298813183483</v>
+        <v>1.049368914535995</v>
       </c>
       <c r="M8">
-        <v>1.084836622864855</v>
+        <v>1.058322064475493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066386984248656</v>
+        <v>1.008283463075604</v>
       </c>
       <c r="D9">
-        <v>1.065829538792001</v>
+        <v>1.027724855260316</v>
       </c>
       <c r="E9">
-        <v>1.070460858742752</v>
+        <v>1.022258063452639</v>
       </c>
       <c r="F9">
-        <v>1.078937156792816</v>
+        <v>1.030890916907186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047076170300368</v>
+        <v>1.051507716013421</v>
       </c>
       <c r="J9">
-        <v>1.072002246235455</v>
+        <v>1.033547064038234</v>
       </c>
       <c r="K9">
-        <v>1.068897783719136</v>
+        <v>1.040383579122352</v>
       </c>
       <c r="L9">
-        <v>1.073514972110979</v>
+        <v>1.035000053639531</v>
       </c>
       <c r="M9">
-        <v>1.081965748771482</v>
+        <v>1.043501931569885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063945221332588</v>
+        <v>0.9943866567920027</v>
       </c>
       <c r="D10">
-        <v>1.063949981410957</v>
+        <v>1.01707091573551</v>
       </c>
       <c r="E10">
-        <v>1.068315896080533</v>
+        <v>1.010459209772898</v>
       </c>
       <c r="F10">
-        <v>1.076736523396183</v>
+        <v>1.018784534834076</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046442307633769</v>
+        <v>1.046785647875031</v>
       </c>
       <c r="J10">
-        <v>1.070090317454964</v>
+        <v>1.02282477085054</v>
       </c>
       <c r="K10">
-        <v>1.067298602830458</v>
+        <v>1.031138641515967</v>
       </c>
       <c r="L10">
-        <v>1.071649872603067</v>
+        <v>1.024642153376852</v>
       </c>
       <c r="M10">
-        <v>1.080042621920126</v>
+        <v>1.032822714014553</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062885863023801</v>
+        <v>0.9880774843512423</v>
       </c>
       <c r="D11">
-        <v>1.063134058149238</v>
+        <v>1.01224165620808</v>
       </c>
       <c r="E11">
-        <v>1.067385474704331</v>
+        <v>1.005114413364449</v>
       </c>
       <c r="F11">
-        <v>1.07578198843604</v>
+        <v>1.013300964269588</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046164895434651</v>
+        <v>1.044624297005197</v>
       </c>
       <c r="J11">
-        <v>1.069259954167601</v>
+        <v>1.017954805025213</v>
       </c>
       <c r="K11">
-        <v>1.066603402380071</v>
+        <v>1.026936347305388</v>
       </c>
       <c r="L11">
-        <v>1.070839997973872</v>
+        <v>1.019940519586892</v>
       </c>
       <c r="M11">
-        <v>1.079207618948811</v>
+        <v>1.027976328759404</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.062492050905423</v>
+        <v>0.9856856548216959</v>
       </c>
       <c r="D12">
-        <v>1.062830671409697</v>
+        <v>1.010412259241086</v>
       </c>
       <c r="E12">
-        <v>1.067039620850493</v>
+        <v>1.003090177946508</v>
       </c>
       <c r="F12">
-        <v>1.075427176476296</v>
+        <v>1.011224261656983</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046061406748232</v>
+        <v>1.043802423477635</v>
       </c>
       <c r="J12">
-        <v>1.068951139315855</v>
+        <v>1.016108425989867</v>
       </c>
       <c r="K12">
-        <v>1.066344755399514</v>
+        <v>1.025342659062315</v>
       </c>
       <c r="L12">
-        <v>1.070538825601946</v>
+        <v>1.018158413528654</v>
       </c>
       <c r="M12">
-        <v>1.078897112415615</v>
+        <v>1.026139536201511</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.062576539550147</v>
+        <v>0.9862009761212849</v>
       </c>
       <c r="D13">
-        <v>1.062895763325253</v>
+        <v>1.010806337019988</v>
       </c>
       <c r="E13">
-        <v>1.067113819292482</v>
+        <v>1.003526207192142</v>
       </c>
       <c r="F13">
-        <v>1.075503296520108</v>
+        <v>1.011671588289998</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046083625627199</v>
+        <v>1.043979607055394</v>
       </c>
       <c r="J13">
-        <v>1.0690173985105</v>
+        <v>1.016506234180073</v>
       </c>
       <c r="K13">
-        <v>1.066400255097177</v>
+        <v>1.025686043507687</v>
       </c>
       <c r="L13">
-        <v>1.070603444001569</v>
+        <v>1.018542353019626</v>
       </c>
       <c r="M13">
-        <v>1.078963733042489</v>
+        <v>1.026535249050982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.062853316962213</v>
+        <v>0.9878807889636456</v>
       </c>
       <c r="D14">
-        <v>1.063108986602066</v>
+        <v>1.012091183513319</v>
       </c>
       <c r="E14">
-        <v>1.067356891542148</v>
+        <v>1.004947905852421</v>
       </c>
       <c r="F14">
-        <v>1.075752664819924</v>
+        <v>1.013130139059115</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046156350131452</v>
+        <v>1.044556758897305</v>
       </c>
       <c r="J14">
-        <v>1.069234435250794</v>
+        <v>1.017802967798636</v>
       </c>
       <c r="K14">
-        <v>1.066582031115147</v>
+        <v>1.026805298885814</v>
       </c>
       <c r="L14">
-        <v>1.070815110130439</v>
+        <v>1.019793958521442</v>
       </c>
       <c r="M14">
-        <v>1.079181959548711</v>
+        <v>1.02782526651552</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063023806054481</v>
+        <v>0.9889092288767918</v>
       </c>
       <c r="D15">
-        <v>1.063240318359677</v>
+        <v>1.012878001898195</v>
       </c>
       <c r="E15">
-        <v>1.067506622495923</v>
+        <v>1.005818588036646</v>
       </c>
       <c r="F15">
-        <v>1.075906274810388</v>
+        <v>1.014023402615305</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046201098985305</v>
+        <v>1.044909787499708</v>
       </c>
       <c r="J15">
-        <v>1.06936810804291</v>
+        <v>1.018596857202873</v>
       </c>
       <c r="K15">
-        <v>1.066693973665792</v>
+        <v>1.027490475006909</v>
       </c>
       <c r="L15">
-        <v>1.070945478172693</v>
+        <v>1.020560279762165</v>
       </c>
       <c r="M15">
-        <v>1.07931636960436</v>
+        <v>1.028615130393475</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064015483228992</v>
+        <v>0.994798859773766</v>
       </c>
       <c r="D16">
-        <v>1.064004087530283</v>
+        <v>1.017386607989123</v>
       </c>
       <c r="E16">
-        <v>1.068377609901529</v>
+        <v>1.010808669084678</v>
       </c>
       <c r="F16">
-        <v>1.076799837385707</v>
+        <v>1.01914307953079</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046460656261399</v>
+        <v>1.046926506229863</v>
       </c>
       <c r="J16">
-        <v>1.07014537292302</v>
+        <v>1.023142914822577</v>
       </c>
       <c r="K16">
-        <v>1.067344682638508</v>
+        <v>1.031413103485397</v>
       </c>
       <c r="L16">
-        <v>1.071703572786454</v>
+        <v>1.024949361245406</v>
       </c>
       <c r="M16">
-        <v>1.08009798973929</v>
+        <v>1.033139403979161</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064636977903012</v>
+        <v>0.998412179744107</v>
       </c>
       <c r="D17">
-        <v>1.064482622888015</v>
+        <v>1.020154814359792</v>
       </c>
       <c r="E17">
-        <v>1.068923513174421</v>
+        <v>1.013873348673334</v>
       </c>
       <c r="F17">
-        <v>1.077359899327205</v>
+        <v>1.02228749725782</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046622679042363</v>
+        <v>1.048159293790413</v>
       </c>
       <c r="J17">
-        <v>1.070632259905131</v>
+        <v>1.025931512586299</v>
       </c>
       <c r="K17">
-        <v>1.067752115997849</v>
+        <v>1.033818450232301</v>
       </c>
       <c r="L17">
-        <v>1.0721784915687</v>
+        <v>1.027642423187871</v>
       </c>
       <c r="M17">
-        <v>1.080587664851914</v>
+        <v>1.035915713906735</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.064999287258952</v>
+        <v>1.000491951545281</v>
       </c>
       <c r="D18">
-        <v>1.064761545915784</v>
+        <v>1.021748851507379</v>
       </c>
       <c r="E18">
-        <v>1.069241771766003</v>
+        <v>1.0156384328447</v>
       </c>
       <c r="F18">
-        <v>1.077686415684522</v>
+        <v>1.024098555540354</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046716900192015</v>
+        <v>1.048867214811738</v>
       </c>
       <c r="J18">
-        <v>1.070916013541507</v>
+        <v>1.027536386417772</v>
       </c>
       <c r="K18">
-        <v>1.067989500596426</v>
+        <v>1.035202442362106</v>
       </c>
       <c r="L18">
-        <v>1.0724552847184</v>
+        <v>1.029192578120322</v>
       </c>
       <c r="M18">
-        <v>1.080873064919043</v>
+        <v>1.037513889396935</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065122792106597</v>
+        <v>1.001196508064734</v>
       </c>
       <c r="D19">
-        <v>1.064856617982438</v>
+        <v>1.022288969502386</v>
       </c>
       <c r="E19">
-        <v>1.069350263231813</v>
+        <v>1.016236564925274</v>
       </c>
       <c r="F19">
-        <v>1.077797722710774</v>
+        <v>1.024712274904491</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046748979085995</v>
+        <v>1.049106750486868</v>
       </c>
       <c r="J19">
-        <v>1.071012725835527</v>
+        <v>1.028080025479984</v>
       </c>
       <c r="K19">
-        <v>1.068070397953061</v>
+        <v>1.035671204356789</v>
       </c>
       <c r="L19">
-        <v>1.072549627109884</v>
+        <v>1.029717725459232</v>
       </c>
       <c r="M19">
-        <v>1.080970342014645</v>
+        <v>1.038055321618464</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.06457031795561</v>
+        <v>0.9980274123433571</v>
       </c>
       <c r="D20">
-        <v>1.064431301158079</v>
+        <v>1.019859965203829</v>
       </c>
       <c r="E20">
-        <v>1.068864959272299</v>
+        <v>1.013546887813375</v>
       </c>
       <c r="F20">
-        <v>1.077299826411671</v>
+        <v>1.021952537195209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046605324927663</v>
+        <v>1.048028190289332</v>
       </c>
       <c r="J20">
-        <v>1.070580046346626</v>
+        <v>1.025634586281835</v>
       </c>
       <c r="K20">
-        <v>1.067708429646278</v>
+        <v>1.033562364485034</v>
       </c>
       <c r="L20">
-        <v>1.072127559976212</v>
+        <v>1.0273556418693</v>
       </c>
       <c r="M20">
-        <v>1.08053515006598</v>
+        <v>1.035620056880874</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.062771821806727</v>
+        <v>0.9873874991275458</v>
       </c>
       <c r="D21">
-        <v>1.06304620645238</v>
+        <v>1.011713838233802</v>
       </c>
       <c r="E21">
-        <v>1.06728531989546</v>
+        <v>1.004530356630288</v>
       </c>
       <c r="F21">
-        <v>1.07567923917845</v>
+        <v>1.012701763884923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046134946897568</v>
+        <v>1.044387341284456</v>
       </c>
       <c r="J21">
-        <v>1.069170533917315</v>
+        <v>1.017422175163364</v>
       </c>
       <c r="K21">
-        <v>1.066528514213712</v>
+        <v>1.02647663550398</v>
       </c>
       <c r="L21">
-        <v>1.070752789419866</v>
+        <v>1.019426405340958</v>
       </c>
       <c r="M21">
-        <v>1.07911770698138</v>
+        <v>1.027446428001734</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.061639183684738</v>
+        <v>0.9804154710924452</v>
       </c>
       <c r="D22">
-        <v>1.062173507868744</v>
+        <v>1.006384213185636</v>
       </c>
       <c r="E22">
-        <v>1.066290664878292</v>
+        <v>0.9986338936057748</v>
       </c>
       <c r="F22">
-        <v>1.074658831363245</v>
+        <v>1.006652652910324</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04583662289388</v>
+        <v>1.041987050627639</v>
       </c>
       <c r="J22">
-        <v>1.068282109645119</v>
+        <v>1.012039982081416</v>
       </c>
       <c r="K22">
-        <v>1.065784229649725</v>
+        <v>1.02183024968562</v>
       </c>
       <c r="L22">
-        <v>1.069886394517042</v>
+        <v>1.014232461994903</v>
       </c>
       <c r="M22">
-        <v>1.078224479959747</v>
+        <v>1.022093461506707</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06223979549454</v>
+        <v>0.98413990627271</v>
       </c>
       <c r="D23">
-        <v>1.062636318027658</v>
+        <v>1.009230415131406</v>
       </c>
       <c r="E23">
-        <v>1.066818092562363</v>
+        <v>1.001782582449991</v>
       </c>
       <c r="F23">
-        <v>1.07519991180682</v>
+        <v>1.009882800939087</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045995015501889</v>
+        <v>1.04327059191917</v>
       </c>
       <c r="J23">
-        <v>1.06875329197244</v>
+        <v>1.014915156878973</v>
       </c>
       <c r="K23">
-        <v>1.066179020928144</v>
+        <v>1.024312578706504</v>
       </c>
       <c r="L23">
-        <v>1.070345880935568</v>
+        <v>1.01700681371112</v>
       </c>
       <c r="M23">
-        <v>1.07869819082114</v>
+        <v>1.024952650643627</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064600439328431</v>
+        <v>0.9982013577992507</v>
       </c>
       <c r="D24">
-        <v>1.064454491852485</v>
+        <v>1.019993258307178</v>
       </c>
       <c r="E24">
-        <v>1.068891417747324</v>
+        <v>1.013694470669664</v>
       </c>
       <c r="F24">
-        <v>1.077326971265792</v>
+        <v>1.022103962125407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04661316738274</v>
+        <v>1.0480874646408</v>
       </c>
       <c r="J24">
-        <v>1.070603640145854</v>
+        <v>1.025768821212087</v>
       </c>
       <c r="K24">
-        <v>1.067728170445242</v>
+        <v>1.033678137134604</v>
       </c>
       <c r="L24">
-        <v>1.072150574447263</v>
+        <v>1.027485289621756</v>
       </c>
       <c r="M24">
-        <v>1.080558879914639</v>
+        <v>1.03575371683606</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067332103586539</v>
+        <v>1.013438737767716</v>
       </c>
       <c r="D25">
-        <v>1.066556615598236</v>
+        <v>1.031682219741192</v>
       </c>
       <c r="E25">
-        <v>1.071291242741623</v>
+        <v>1.026643967043676</v>
       </c>
       <c r="F25">
-        <v>1.079789122874742</v>
+        <v>1.035391529035989</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04731936762727</v>
+        <v>1.05324384411815</v>
       </c>
       <c r="J25">
-        <v>1.07274150493617</v>
+        <v>1.037522147049834</v>
       </c>
       <c r="K25">
-        <v>1.069515522435142</v>
+        <v>1.04380784145576</v>
       </c>
       <c r="L25">
-        <v>1.074236257133369</v>
+        <v>1.038842284867187</v>
       </c>
       <c r="M25">
-        <v>1.082709534673982</v>
+        <v>1.047464201715845</v>
       </c>
     </row>
   </sheetData>
